--- a/biology/Botanique/Château_Lafaurie-Peyraguey/Château_Lafaurie-Peyraguey.xlsx
+++ b/biology/Botanique/Château_Lafaurie-Peyraguey/Château_Lafaurie-Peyraguey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lafaurie-Peyraguey</t>
+          <t>Château_Lafaurie-Peyraguey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Château Lafaurie-Peyraguey, est un domaine viticole de 18 hectares en production[1] situé dans la commune de Bommes, dans le département de la Gironde, en France.
+Le Château Lafaurie-Peyraguey, est un domaine viticole de 18 hectares en production situé dans la commune de Bommes, dans le département de la Gironde, en France.
 En AOC Sauternes, il est classé premier grand cru dans la classification officielle des vins de Bordeaux de 1855.
-À l’occasion des 400 ans de Château Lafaurie-Peyraguey, un nouvel hôtel-restaurant LALIQUE a ouvert ses portes en Juin 2018. L’Hôtel &amp; Restaurant LALIQUE obtient la distinction Relais &amp; Châteaux, seulement deux mois après son ouverture puis décroche la classification cinq étoiles en novembre 2018 lui permettant de rejoindre le cercle prestigieux des établissements de luxe dans la région. Après une première étoile obtenue en 2019, offrant à Sauternes sa première table étoilée Michelin, Jérôme Schilling et le Restaurant LALIQUE se voient décernés deux étoiles au Guide Michelin en mars 2022[2].
+À l’occasion des 400 ans de Château Lafaurie-Peyraguey, un nouvel hôtel-restaurant LALIQUE a ouvert ses portes en Juin 2018. L’Hôtel &amp; Restaurant LALIQUE obtient la distinction Relais &amp; Châteaux, seulement deux mois après son ouverture puis décroche la classification cinq étoiles en novembre 2018 lui permettant de rejoindre le cercle prestigieux des établissements de luxe dans la région. Après une première étoile obtenue en 2019, offrant à Sauternes sa première table étoilée Michelin, Jérôme Schilling et le Restaurant LALIQUE se voient décernés deux étoiles au Guide Michelin en mars 2022.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lafaurie-Peyraguey</t>
+          <t>Château_Lafaurie-Peyraguey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,14 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine du château remonterait au XIIIe siècle, mais le premier propriétaire avéré est Raymond Peyraguey qui s'installe à Bommes en 1618. Il développe le vignoble pour produire des vins liquoreux très simples et appréciés au XVIIe siècle. Le domaine est racheté en 1742 par le baron Pierre de Pichard, membre du Parlement de Bordeaux, et alors propriétaire des domaines viticoles du château Lafite à Pauillac et du château Coutet à Barsac. C'est lui qui réellement développe l'exploitation, tant du point de vue de la surface du vignoble (30 ha) que des techniques et du volume de production. Le baron de Pichard est guillotiné en 1794 et le domaine est mis en vente par la République. Il est acheté par Lafaurie, vivant à Preignac, qui, en une trentaine d'années, donne une grande renommée à la qualité et à l'image du vin de Peyraguey. En 1855, il reçoit la consécration en devenant l'un des premiers grands crus du classement officiel des vins de Bordeaux.
 En 1865, la veuve de Lafaurie vend le domaine au comte Duchâtel, propriétaire du château Lagrange. Il modernise l'exploitation et restaure le château, mais le château passera de main en main jusqu'en 1917. À cette date, Désiré Cordier, un négociant originaire de Lorraine, en fait l'acquisition, ainsi que de domaines dans le Médoc comme le Château Gruaud-Larose et le Château Talbot, et s'installe comme un des plus gros marchands de vin sur la place de Bordeaux pendant près de 70 ans. En 1984, le domaine comme l'ensemble du groupe Cordier devient la propriété du groupe Suez.
-Silvio Denz, Président Directeur Général de la Cristallerie Lalique, et propriétaire de Château Faugères et Château Péby-Faugères, deux Grands Crus Classés de Saint-Émilion, acquiert le domaine[1] en 2014.
-En novembre 2023, le groupe suisse Lalique rachète 75 % des parts du domaine et doit, dans la foulée, procéder à une augmentation de capital[3]. L'opération est estimée à 18 millions d'euros et doit prendre effet en décembre 2023[4].
+Silvio Denz, Président Directeur Général de la Cristallerie Lalique, et propriétaire de Château Faugères et Château Péby-Faugères, deux Grands Crus Classés de Saint-Émilion, acquiert le domaine en 2014.
+En novembre 2023, le groupe suisse Lalique rachète 75 % des parts du domaine et doit, dans la foulée, procéder à une augmentation de capital. L'opération est estimée à 18 millions d'euros et doit prendre effet en décembre 2023.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lafaurie-Peyraguey</t>
+          <t>Château_Lafaurie-Peyraguey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur un sol silico-graveleux et argilo-graveleux, l'encépagement est constitué à 93 % de sémillon, 6 % de sauvignon, et 1 % de muscadelle. Les vignes ont une moyenne d'âge de 40 ans.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lafaurie-Peyraguey</t>
+          <t>Château_Lafaurie-Peyraguey</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec un rendement d'environ 18 hl/ha selon les millésimes et un élevage traditionnel de 18 à 20 mois en barriques, le domaine produit 5 000 à 15 000 bouteilles de Château Lafaurie-Peyraguey 1er Grand Cru Classé par millésime.
 Le domaine produit également un second vin La Chapelle de Lafaurie-Peyraguey.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Lafaurie-Peyraguey</t>
+          <t>Château_Lafaurie-Peyraguey</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce vin, sous le nom de Peyraguey, est le vin préféré des protagonistes du roman d'Evelyn Waugh, Retour à Brideshead, dans lequel Charles et Sebastian le boivent avec des fraises[5]. Evelyn Waugh lui-même l'appréciait énormément[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce vin, sous le nom de Peyraguey, est le vin préféré des protagonistes du roman d'Evelyn Waugh, Retour à Brideshead, dans lequel Charles et Sebastian le boivent avec des fraises. Evelyn Waugh lui-même l'appréciait énormément.
 </t>
         </is>
       </c>
